--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3396207.009344154</v>
+        <v>3500386.643795226</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283175</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>32.97988876732279</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>332.4467765760105</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>74.7576914549238</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>183.5583866461487</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>356.9651380164159</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>261.3318475681866</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>28.86901185972586</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>210.4215906786157</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>205.1127822067371</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>146.6525686002696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.153367246128644</v>
+        <v>141.0165109679214</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70843787977262</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>32.81060261324276</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695622</v>
+        <v>83.70251495695516</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G16" t="n">
-        <v>132.6315337216692</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>28.87857325624259</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="17">
@@ -1853,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C19" t="n">
-        <v>88.98787776789686</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>74.9633779348832</v>
       </c>
     </row>
     <row r="20">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>101.5730368512095</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D25" t="n">
-        <v>64.36993339924462</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079034488</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>4.019807611472472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>99.6514066310757</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>68.17501931583821</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>180.3302385618274</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>88.27810958517578</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>211.147499124903</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>28.68281686619609</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.8291121019625</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>23.10998325717218</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.799772605716619</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>48.85497112745813</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>552.807938939214</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>552.807938939214</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>552.807938939214</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>141.8220341496064</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2736.270520058755</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="3">
@@ -4398,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.0249360836216</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="C4" t="n">
-        <v>142.0249360836216</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D4" t="n">
-        <v>142.0249360836216</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E4" t="n">
-        <v>142.0249360836216</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0249360836216</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4522,16 +4524,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836216</v>
+        <v>660.0790425672692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1908.990616856006</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1550.724918249256</v>
       </c>
       <c r="E5" t="n">
         <v>1190.154071768027</v>
@@ -4559,34 +4561,34 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.813113209913</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.813113209913</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2324.347354948834</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1934.208022973022</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4649,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.8675266085669</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1523.061602623788</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1233.958735749432</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>979.2742475435448</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>689.8570775065842</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X7" t="n">
-        <v>461.8675266085669</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y7" t="n">
-        <v>461.8675266085669</v>
+        <v>720.5449729949386</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>2212.771568013854</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1843.809051073443</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1485.543352466692</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1099.755099868448</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>688.7691950788405</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>273.696744923837</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792694</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>2599.371408077976</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.8175152271517</v>
+        <v>623.1279902937557</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8175152271517</v>
+        <v>454.1918073658488</v>
       </c>
       <c r="D10" t="n">
-        <v>362.8175152271517</v>
+        <v>454.1918073658488</v>
       </c>
       <c r="E10" t="n">
-        <v>214.9044216447586</v>
+        <v>306.2787137834557</v>
       </c>
       <c r="F10" t="n">
-        <v>214.9044216447586</v>
+        <v>306.2787137834557</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>843.9205694372858</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.8175152271517</v>
+        <v>623.1279902937557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656152</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377084</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253728</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1400.559342807162</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1172.569791909145</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>951.7772127656152</v>
       </c>
     </row>
     <row r="14">
@@ -5258,34 +5260,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5297,13 +5299,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098242</v>
+        <v>956.9553291057235</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819173</v>
+        <v>788.0191461778168</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695815</v>
+        <v>637.9025067654812</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3896878871884</v>
+        <v>489.9894131830883</v>
       </c>
       <c r="F16" t="n">
-        <v>369.499740389278</v>
+        <v>343.0994656851781</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2350.747103816258</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2131.145638839199</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1842.070412183397</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1587.38592397751</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1587.38592397751</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>1359.396373079493</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>1138.603793935963</v>
       </c>
     </row>
     <row r="17">
@@ -5501,43 +5503,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>3042.233551722367</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>3639.612039348919</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="O18" t="n">
-        <v>1965.532750177311</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P18" t="n">
-        <v>2389.15589967238</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>658.925596110995</v>
       </c>
       <c r="C19" t="n">
-        <v>491.0125592675714</v>
+        <v>489.9894131830883</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>489.9894131830883</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>489.9894131830883</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>343.0994656851781</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138439</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>840.5740609412346</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179116</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900048</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900048</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>445.6984928076118</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>445.6984928076118</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>278.502393522492</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359459</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179116</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,7 +6025,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N24" t="n">
-        <v>1337.934786622704</v>
+        <v>3951.890584782709</v>
       </c>
       <c r="O24" t="n">
-        <v>1889.844516861991</v>
+        <v>4503.800315021996</v>
       </c>
       <c r="P24" t="n">
-        <v>2313.46766635706</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.547769317909</v>
+        <v>1016.580456911439</v>
       </c>
       <c r="C25" t="n">
-        <v>762.547769317909</v>
+        <v>847.6442739835325</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711968</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888038</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1426.218472639696</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1198.228921741679</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>1198.228921741679</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,43 +6454,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,46 +6694,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1366.386875345992</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2341.919755080347</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597624</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.811327457202</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,19 +6955,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>265.073174061852</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2350.944837543576</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2131.343372566517</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.70136564882</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921476</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898186995</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>264.0500279773693</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>117.1600804794589</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7600,19 +7602,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7640,28 +7642,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,25 +7785,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>253.7123957233481</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>152.1477127454019</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>78.25894333073097</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>143.6212754172115</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>38.72167599501424</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>84.24553961896774</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>279.1149342575563</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>152.4862366927523</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.6960474398171641</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>77.24602870709306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>75.37549921168798</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.3434691354485</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.7555412501323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>142.4141550350967</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>143.6212754172146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794892</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794892</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677484.8800794892</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794892</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244626</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244622</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="L2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181828</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181822</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181806</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768789.0041176931</v>
+        <v>-768789.0041176926</v>
       </c>
       <c r="C6" t="n">
-        <v>559955.7416098994</v>
+        <v>559955.7416098996</v>
       </c>
       <c r="D6" t="n">
-        <v>559955.7416098998</v>
+        <v>559955.7416098999</v>
       </c>
       <c r="E6" t="n">
-        <v>307688.6929001751</v>
+        <v>307688.6929001748</v>
       </c>
       <c r="F6" t="n">
+        <v>633101.1547075298</v>
+      </c>
+      <c r="G6" t="n">
+        <v>633101.15470753</v>
+      </c>
+      <c r="H6" t="n">
+        <v>633101.15470753</v>
+      </c>
+      <c r="I6" t="n">
+        <v>633101.15470753</v>
+      </c>
+      <c r="J6" t="n">
+        <v>415569.9523102525</v>
+      </c>
+      <c r="K6" t="n">
         <v>633101.1547075303</v>
       </c>
-      <c r="G6" t="n">
-        <v>633101.1547075303</v>
-      </c>
-      <c r="H6" t="n">
-        <v>633101.1547075303</v>
-      </c>
-      <c r="I6" t="n">
-        <v>633101.1547075299</v>
-      </c>
-      <c r="J6" t="n">
-        <v>415569.9523102527</v>
-      </c>
-      <c r="K6" t="n">
-        <v>633101.15470753</v>
-      </c>
       <c r="L6" t="n">
-        <v>633101.15470753</v>
+        <v>633101.1547075304</v>
       </c>
       <c r="M6" t="n">
-        <v>548046.1267720184</v>
+        <v>548046.1267720183</v>
       </c>
       <c r="N6" t="n">
-        <v>633101.1547075303</v>
+        <v>633101.1547075298</v>
       </c>
       <c r="O6" t="n">
         <v>633101.15470753</v>
       </c>
       <c r="P6" t="n">
-        <v>633101.15470753</v>
+        <v>633101.1547075303</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>377.9418368861307</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>16.7941921414025</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>21.59472895491429</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>35.02626670594606</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>24.96523205584583</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>66.42041090194834</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>138.377809238902</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>9.127358597553524</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>89.49498218058341</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27910,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>223.0785320781994</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8724410128996</v>
+        <v>25.00929729110678</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29053,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="26">
@@ -31610,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31841,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>620.0899880277078</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>305.542772458138</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32549,22 +32551,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>314.105962234273</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>620.0899880277084</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>285.886712892598</v>
       </c>
       <c r="Q24" t="n">
-        <v>344.9857809048113</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>537.262354434964</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>574.6535388222617</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>316.2462973459351</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34141,7 +34143,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159405</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
@@ -34205,19 +34207,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
@@ -34442,13 +34444,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35489,16 +35491,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>481.5356082478336</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.5609983721165</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>176.264523259914</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>481.5356082478342</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>151.9123054782678</v>
       </c>
       <c r="Q24" t="n">
-        <v>205.0040068187898</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>394.6661099905195</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>432.0572943778172</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>176.2645232599136</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37789,7 +37791,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L42" t="n">
-        <v>71.3955650623777</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38032,7 +38034,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3500386.643795226</v>
+        <v>3496374.033781233</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283175</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>54.84486935319575</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -718,10 +718,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>332.4467765760105</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>69.16121449564825</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.5583866461487</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>356.9651380164159</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>147.2339392611591</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>28.86901185972586</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>205.1127822067371</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>141.0165109679214</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>82.70057996958644</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>32.81060261324276</v>
+        <v>138.9514371171562</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>28.87857325624259</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>74.9633779348832</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>101.5730368512095</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>7.408064079034488</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>39.52129633183122</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>74.95497330697967</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>99.6514066310757</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>180.3302385618274</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3477,16 +3477,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>211.147499124903</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>28.68281686619609</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>48.85497112745813</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1645.81552706783</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1287.549828461079</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883008</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2736.270520058755</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>2362.804761797675</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y2" t="n">
-        <v>2362.804761797675</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>478.4305777370295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>478.4305777370295</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>478.4305777370295</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>845.4915543310558</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>660.0790425672692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2277.953133796418</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1908.990616856006</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1550.724918249256</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>268.2622120761617</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796418</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.8965081646988</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>509.7358901245717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>359.619250712236</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1169.327103036486</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>941.3375521384687</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>720.5449729949386</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2212.771568013854</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1843.809051073443</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1485.543352466692</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1099.755099868448</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>688.7691950788405</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>273.696744923837</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2599.371408077976</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>623.1279902937557</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>454.1918073658488</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>454.1918073658488</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>306.2787137834557</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>306.2787137834557</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.910120335303</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X10" t="n">
-        <v>843.9205694372858</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y10" t="n">
-        <v>623.1279902937557</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656152</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377084</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253728</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429798</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648822</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1400.559342807162</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X13" t="n">
-        <v>1172.569791909145</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.7772127656152</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057235</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654812</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830883</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000581</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2350.747103816258</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.145638839199</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1842.070412183397</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.38592397751</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.38592397751</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079493</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935963</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3042.233551722367</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3639.612039348919</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>4267.210002903525</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>658.925596110995</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>489.9894131830883</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830883</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830883</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000581</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611861</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138439</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>840.5740609412346</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179116</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>593.6115863900048</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>593.6115863900048</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>445.6984928076118</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>445.6984928076118</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>278.502393522492</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359459</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179116</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.580456911439</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835325</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711968</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888038</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908935</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057736</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639696</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.228921741679</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.228921741679</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6217,25 +6217,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6253,7 +6253,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D28" t="n">
-        <v>363.7369613277355</v>
+        <v>626.3497813227614</v>
       </c>
       <c r="E28" t="n">
-        <v>215.8238677453423</v>
+        <v>478.4366877403683</v>
       </c>
       <c r="F28" t="n">
-        <v>215.8238677453423</v>
+        <v>478.4366877403683</v>
       </c>
       <c r="G28" t="n">
-        <v>215.8238677453423</v>
+        <v>311.2405884552482</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>169.5287572974463</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.811327457202</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2045.209862480144</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2045.209862480144</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1790.525374274257</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7025,19 +7025,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7198,13 +7198,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,16 +7265,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2350.944837543576</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2131.343372566517</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1842.268145910715</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1587.583657704828</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1298.166487667867</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1070.17693676985</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,58 +7402,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>366.9636532421613</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>253.7123957233481</v>
+        <v>147.5715612194348</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.1477127454019</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.6212754172115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>38.72167599501424</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>279.1149342575563</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.310863011585866</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>152.4862366927523</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.6960474398171641</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>75.37549921168798</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.3434691354485</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>116.6691671648107</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>677484.8800794892</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677484.8800794892</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677484.8800794892</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.8800794892</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677484.8800794892</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="O2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181828</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181822</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768789.0041176926</v>
+        <v>-768789.0041176931</v>
       </c>
       <c r="C6" t="n">
-        <v>559955.7416098996</v>
+        <v>559955.7416098998</v>
       </c>
       <c r="D6" t="n">
-        <v>559955.7416098999</v>
+        <v>559955.7416099</v>
       </c>
       <c r="E6" t="n">
-        <v>307688.6929001748</v>
+        <v>307341.3136458179</v>
       </c>
       <c r="F6" t="n">
-        <v>633101.1547075298</v>
+        <v>632753.7754531731</v>
       </c>
       <c r="G6" t="n">
-        <v>633101.15470753</v>
+        <v>632753.7754531731</v>
       </c>
       <c r="H6" t="n">
-        <v>633101.15470753</v>
+        <v>632753.7754531731</v>
       </c>
       <c r="I6" t="n">
-        <v>633101.15470753</v>
+        <v>632753.7754531732</v>
       </c>
       <c r="J6" t="n">
-        <v>415569.9523102525</v>
+        <v>415222.573055896</v>
       </c>
       <c r="K6" t="n">
-        <v>633101.1547075303</v>
+        <v>632753.7754531731</v>
       </c>
       <c r="L6" t="n">
-        <v>633101.1547075304</v>
+        <v>632753.7754531733</v>
       </c>
       <c r="M6" t="n">
-        <v>548046.1267720183</v>
+        <v>547698.7475176613</v>
       </c>
       <c r="N6" t="n">
-        <v>633101.1547075298</v>
+        <v>632753.7754531729</v>
       </c>
       <c r="O6" t="n">
-        <v>633101.15470753</v>
+        <v>632753.7754531731</v>
       </c>
       <c r="P6" t="n">
-        <v>633101.1547075303</v>
+        <v>632753.7754531731</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>327.085500719066</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.7941921414025</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>217.3617838409427</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>35.02626670594606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>24.96523205584583</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>259.6421064805523</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>138.377809238902</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>89.49498218058341</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>25.00929729110678</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>169.4370633542416</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32022,7 +32022,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0899880277078</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>285.886712892598</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>537.262354434964</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>188.4731159523455</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>229.6463482471735</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>481.5356082478336</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>151.9123054782678</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>394.6661099905195</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>45.87687150790109</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>91.80490927281451</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3496374.033781233</v>
+        <v>3498134.564084018</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54.84486935319575</v>
+        <v>205.6099408342582</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>69.16121449564825</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>147.2339392611591</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>58.92805047992254</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506846</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>292.4353878916793</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>7.906645607737993</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>82.70057996958644</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>138.9514371171562</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>42.76123719079619</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>74.95497330697967</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.6584215897767</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>35.41770597126624</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014.778044008242</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="C2" t="n">
-        <v>1645.81552706783</v>
+        <v>1439.837779452052</v>
       </c>
       <c r="D2" t="n">
-        <v>1287.549828461079</v>
+        <v>1439.837779452052</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4360,22 +4360,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y2" t="n">
-        <v>2014.778044008242</v>
+        <v>1808.800296392463</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V4" t="n">
-        <v>1548.361223971664</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221568</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281156</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744059</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761617</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.87852028569</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218343</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>785.680167749271</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>616.7439848213642</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>466.6273454090284</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>318.7142518266353</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>171.8243043287249</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>171.8243043287249</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1843.758608725274</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W10" t="n">
-        <v>1554.341438688313</v>
+        <v>1416.110762621058</v>
       </c>
       <c r="X10" t="n">
-        <v>1326.351887790296</v>
+        <v>1188.121211723041</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.559308646766</v>
+        <v>967.3286325795108</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,31 +5038,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5132,10 +5132,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1360.39208240939</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6253,7 +6253,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>945.402603663004</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C28" t="n">
-        <v>776.4664207350971</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>626.3497813227614</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>478.4366877403683</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>478.4366877403683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>311.2405884552482</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>169.5287572974463</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2302.863667833011</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2083.262202855953</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1794.18697620015</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1539.502487994263</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,16 +6484,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7086,10 +7086,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7165,7 +7165,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7323,10 +7323,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7788,16 +7788,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-2.952548028231361e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>147.5715612194348</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>182.948418198241</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.310863011585866</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>38.36786441186791</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>104.8770068749576</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677484.8800794892</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="15">
@@ -26316,31 +26316,31 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132554</v>
@@ -26349,7 +26349,7 @@
         <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132552</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.34467155123275e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="C4" t="n">
+        <v>91573.9549531693</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316939</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91573.95495316938</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181809</v>
@@ -26441,10 +26441,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768789.0041176931</v>
+        <v>-768789.0041176926</v>
       </c>
       <c r="C6" t="n">
+        <v>559955.7416098991</v>
+      </c>
+      <c r="D6" t="n">
         <v>559955.7416098998</v>
       </c>
-      <c r="D6" t="n">
-        <v>559955.7416099</v>
-      </c>
       <c r="E6" t="n">
-        <v>307341.3136458179</v>
+        <v>307653.9549747391</v>
       </c>
       <c r="F6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820946</v>
       </c>
       <c r="G6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820945</v>
       </c>
       <c r="H6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820943</v>
       </c>
       <c r="I6" t="n">
-        <v>632753.7754531732</v>
+        <v>633066.4167820945</v>
       </c>
       <c r="J6" t="n">
-        <v>415222.573055896</v>
+        <v>415535.2143848172</v>
       </c>
       <c r="K6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="L6" t="n">
-        <v>632753.7754531733</v>
+        <v>633066.4167820946</v>
       </c>
       <c r="M6" t="n">
-        <v>547698.7475176613</v>
+        <v>548011.3888465826</v>
       </c>
       <c r="N6" t="n">
-        <v>632753.7754531729</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="O6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="P6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820944</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>327.085500719066</v>
+        <v>176.3204292380036</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>214.5414662356961</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>217.3617838409427</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>259.6421064805523</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>144.9899196596976</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>118.0986533615246</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194503</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>93.8025507643743</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>136.8483693065828</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>169.4370633542416</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.545608445191735e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
